--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-40-7.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-40-7.xlsx
@@ -441,74 +441,74 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="F2">
-        <v>310</v>
+        <v>1800</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>149</v>
+        <v>815</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>149</v>
+        <v>815</v>
       </c>
       <c r="F3">
-        <v>318</v>
+        <v>905</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>925</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>164</v>
+        <v>925</v>
       </c>
       <c r="F4">
-        <v>390</v>
+        <v>1070</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -519,51 +519,51 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>285</v>
+        <v>981</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>285</v>
+        <v>981</v>
       </c>
       <c r="F5">
-        <v>466</v>
+        <v>2323</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>304</v>
+        <v>1028</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>304</v>
+        <v>1028</v>
       </c>
       <c r="F6">
-        <v>515</v>
+        <v>1143</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -571,51 +571,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>344</v>
+        <v>1190</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>344</v>
+        <v>1190</v>
       </c>
       <c r="F7">
-        <v>581</v>
+        <v>1321</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>398</v>
+        <v>1213</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>1213</v>
       </c>
       <c r="F8">
-        <v>648</v>
+        <v>1349</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -623,152 +623,152 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>438</v>
+        <v>1278</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>438</v>
+        <v>1278</v>
       </c>
       <c r="F9">
-        <v>703</v>
+        <v>1389</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>460</v>
+        <v>1321</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>460</v>
+        <v>1321</v>
       </c>
       <c r="F10">
-        <v>728</v>
+        <v>1444</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>737</v>
+        <v>1384</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>737</v>
+        <v>1384</v>
       </c>
       <c r="F11">
-        <v>1003</v>
+        <v>1501</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>807</v>
+        <v>1630</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>807</v>
+        <v>1630</v>
       </c>
       <c r="F12">
-        <v>1090</v>
+        <v>1732</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>905</v>
+        <v>1668</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>905</v>
+        <v>1668</v>
       </c>
       <c r="F13">
-        <v>1096</v>
+        <v>1802</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1748</v>
+      </c>
+      <c r="C14">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>907</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
       <c r="D14">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>907</v>
+        <v>1748</v>
       </c>
       <c r="F14">
-        <v>1072</v>
+        <v>1858</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -779,48 +779,48 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>1124</v>
+        <v>1847</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>1124</v>
+        <v>1847</v>
       </c>
       <c r="F15">
-        <v>1283</v>
+        <v>1925</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>1176</v>
+        <v>1870</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>1176</v>
+        <v>1870</v>
       </c>
       <c r="F16">
-        <v>1403</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -831,51 +831,51 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>1223</v>
+        <v>1888</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1223</v>
+        <v>1888</v>
       </c>
       <c r="F17">
-        <v>1498</v>
+        <v>3663</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>1286</v>
+        <v>1908</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>1286</v>
+        <v>1908</v>
       </c>
       <c r="F18">
-        <v>2282</v>
+        <v>2003</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>1507</v>
+        <v>1930</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>1507</v>
+        <v>1930</v>
       </c>
       <c r="F19">
-        <v>1751</v>
+        <v>2014</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -909,25 +909,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1544</v>
+        <v>2079</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1544</v>
+        <v>2079</v>
       </c>
       <c r="F20">
-        <v>1772</v>
+        <v>2206</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -935,106 +935,106 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>1611</v>
+        <v>2219</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>1611</v>
+        <v>2219</v>
       </c>
       <c r="F21">
-        <v>1897</v>
+        <v>2361</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>1614</v>
+        <v>2222</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1614</v>
+        <v>2222</v>
       </c>
       <c r="F22">
-        <v>1903</v>
+        <v>2322</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>1657</v>
+        <v>2247</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>1657</v>
+        <v>2247</v>
       </c>
       <c r="F23">
-        <v>3286</v>
+        <v>2388</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>1727</v>
+        <v>2402</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>1727</v>
+        <v>2402</v>
       </c>
       <c r="F24">
-        <v>1958</v>
+        <v>3657</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,19 +1042,19 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>1767</v>
+        <v>2429</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>1767</v>
+        <v>2429</v>
       </c>
       <c r="F25">
-        <v>3071</v>
+        <v>2540</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1065,256 +1065,256 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>1778</v>
+        <v>2440</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>1778</v>
+        <v>2440</v>
       </c>
       <c r="F26">
-        <v>2070</v>
+        <v>2564</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>1814</v>
+        <v>2453</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>1814</v>
+        <v>2453</v>
       </c>
       <c r="F27">
-        <v>2017</v>
+        <v>2547</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>2154</v>
+        <v>2546</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>2154</v>
+        <v>2546</v>
       </c>
       <c r="F28">
-        <v>2410</v>
+        <v>2671</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>2498</v>
+        <v>2580</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>2498</v>
+        <v>2580</v>
       </c>
       <c r="F29">
-        <v>3888</v>
+        <v>2659</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>2566</v>
+        <v>2660</v>
       </c>
       <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
         <v>34</v>
       </c>
-      <c r="D30">
-        <v>26</v>
-      </c>
       <c r="E30">
-        <v>2566</v>
+        <v>2660</v>
       </c>
       <c r="F30">
-        <v>2729</v>
+        <v>2786</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>2597</v>
+        <v>2688</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>2597</v>
+        <v>2688</v>
       </c>
       <c r="F31">
-        <v>2760</v>
+        <v>3989</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2609</v>
+        <v>2793</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>2609</v>
+        <v>2793</v>
       </c>
       <c r="F32">
-        <v>3720</v>
+        <v>2890</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>2635</v>
+        <v>2805</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E33">
-        <v>2635</v>
+        <v>2805</v>
       </c>
       <c r="F33">
-        <v>2838</v>
+        <v>4349</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>2942</v>
+        <v>2843</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>2942</v>
+        <v>2843</v>
       </c>
       <c r="F34">
-        <v>3184</v>
+        <v>2965</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>3135</v>
+        <v>2852</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>3135</v>
+        <v>2852</v>
       </c>
       <c r="F35">
-        <v>3345</v>
+        <v>4136</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1325,25 +1325,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>3175</v>
+        <v>3130</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>3175</v>
+        <v>3130</v>
       </c>
       <c r="F36">
-        <v>3465</v>
+        <v>4357</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1351,77 +1351,77 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>3201</v>
+        <v>3299</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>3201</v>
+        <v>3299</v>
       </c>
       <c r="F37">
-        <v>3367</v>
+        <v>3394</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>3355</v>
+        <v>3343</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E38">
-        <v>3355</v>
+        <v>3343</v>
       </c>
       <c r="F38">
-        <v>3652</v>
+        <v>4507</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>3506</v>
+        <v>3500</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>3506</v>
+        <v>3500</v>
       </c>
       <c r="F39">
-        <v>4899</v>
+        <v>3579</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>3518</v>
+        <v>3503</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>3518</v>
+        <v>3503</v>
       </c>
       <c r="F40">
-        <v>3816</v>
+        <v>3627</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -1455,25 +1455,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>3578</v>
+        <v>3536</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>3578</v>
+        <v>3536</v>
       </c>
       <c r="F41">
-        <v>3746</v>
+        <v>3673</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41">
         <v>2</v>
